--- a/trend_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
+++ b/trend_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.07392756892108571</v>
+        <v>0.926072431078914</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.787574507172097</v>
+        <v>0.212425492827903</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.318925511715326</v>
+        <v>0.681074488284674</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.131063475962334</v>
+        <v>0.868936524037666</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.757283972220813</v>
+        <v>0.0012633335021837</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0402298850574713</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.448275862068966</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.82</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004998134463655</v>
+        <v>0.346579073482428</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0083406254187886</v>
+        <v>0.0461808796815526</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0230753480730151</v>
+        <v>0.9072355967778311</v>
       </c>
       <c r="N30" t="n">
-        <v>0.609528593128659</v>
+        <v>9.76279080232192</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.674761122635761</v>
+        <v>0.323167560453459</v>
       </c>
       <c r="G31" t="n">
-        <v>0.126829268292683</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="H31" t="n">
-        <v>0.160975609756098</v>
+        <v>0.479452054794521</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>0.013</v>
+        <v>0.85</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.000200358047275</v>
+        <v>-0.0298952516893305</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0167239010989011</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.590255332902392</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.337761875846676</v>
+        <v>0.016026121912365</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.720588235294118</v>
+        <v>0.848837209302326</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>233</v>
+        <v>10.4</v>
       </c>
       <c r="K32" t="n">
-        <v>1.63217583694437</v>
+        <v>-0.0413436768149882</v>
       </c>
       <c r="L32" t="n">
-        <v>-4.020365015816</v>
+        <v>-0.0718812736408723</v>
       </c>
       <c r="M32" t="n">
-        <v>8.414743458564001</v>
+        <v>-0.0099984949181666</v>
       </c>
       <c r="N32" t="n">
-        <v>0.700504651049084</v>
+        <v>-0.397535353990271</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.996446086711975</v>
+        <v>0.120116471578126</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H33" t="n">
-        <v>0.877659574468085</v>
+        <v>0.146892655367232</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.55725</v>
+        <v>0.012</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.008920148442989899</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0144233889761579</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0045789248722341</v>
+        <v>0.0003146468650679</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.60074444916822</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.937233638595479</v>
+        <v>0.0100731502468987</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H34" t="n">
-        <v>0.917073170731707</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>6.22</v>
+        <v>226.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0635109103307194</v>
+        <v>10.5107913669065</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.157916080527391</v>
+        <v>2.6897624596732</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0063172643707145</v>
+        <v>19.3956462978189</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.0210757287897</v>
+        <v>4.64052598980418</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.110335680959923</v>
+        <v>0.204869187862451</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.682634730538922</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.329341317365269</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.36</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0390193794358508</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.141877126132082</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0070753842394394</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-10.8387165099585</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3630,7 +3630,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0647756764522039</v>
+        <v>0.113380000059952</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.114649681528662</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8</v>
+        <v>0.121019108280255</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>95.38</v>
+        <v>0.006</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.75773052241072</v>
+        <v>3.99180633014548e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>-12.7149539925029</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.15719773616985</v>
+        <v>0.0002067238700673</v>
       </c>
       <c r="N36" t="n">
-        <v>-4.98818465339769</v>
+        <v>0.665301055024247</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3717,7 +3721,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3727,14 +3735,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3742,31 +3750,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.967640364056819</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.105</v>
+        <v>0.54</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.08010673280238791</v>
+        <v>-0.007836539712751301</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.3099301649268</v>
+        <v>-0.016082893913426</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5257261794495121</v>
+        <v>-0.0016182064147015</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.56918183746107</v>
+        <v>-1.45121105791692</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3775,7 +3783,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3804,7 +3812,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3814,11 +3826,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3829,31 +3841,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.360257393568128</v>
+        <v>0.979250070490841</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.545977011494253</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.388</v>
+        <v>7.685</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0073957662218131</v>
+        <v>0.0119950738916259</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0281767043188977</v>
+        <v>0.0021978294981038</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0167810545499238</v>
+        <v>0.0210269916416901</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.9061253149003</v>
+        <v>0.156084240619725</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3874,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3916,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.019439702257616</v>
+        <v>0.978220605438143</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>97.69</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.98685747663551</v>
+        <v>-0.0080044491837034</v>
       </c>
       <c r="L39" t="n">
-        <v>-4.96640337411225</v>
+        <v>-0.0150102739726027</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.08742853129539</v>
+        <v>-0.0021782220526595</v>
       </c>
       <c r="N39" t="n">
-        <v>-3.05748538912429</v>
+        <v>-1.42681803631078</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3978,7 +3990,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3988,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4003,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.639742606431872</v>
+        <v>0.926519754239441</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.013</v>
+        <v>0.8</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0310707350901526</v>
+        <v>-0.0050084008769149</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.235927701148617</v>
+        <v>-0.0112814187295999</v>
       </c>
       <c r="M40" t="n">
-        <v>0.30129794549251</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.619803213448087</v>
+        <v>-0.626050109614363</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4036,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4065,7 +4081,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4075,14 +4095,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4090,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.043497383420582</v>
+        <v>0.08866713219486561</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.777777777777778</v>
+        <v>0.451977401129944</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>0.032</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.15585443037975</v>
+        <v>0.0003994535441921</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.12268538488723</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.0009230653786204</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.15585443037975</v>
+        <v>1.24829232560038</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4123,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4152,7 +4172,1253 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.586832787927142</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.909604519774011</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0156797197140356</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.099740305817936</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0960826302679344</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.262641871256878</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.757283972220813</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0402298850574713</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.448275862068966</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.004998134463655</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0083406254187886</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0230753480730151</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.609528593128659</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.674761122635761</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.126829268292683</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.160975609756098</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.000200358047275</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.337761875846676</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0147058823529412</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.720588235294118</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>233</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.63217583694437</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-4.020365015816</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.414743458564001</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.700504651049084</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.996446086711975</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.877659574468085</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.55725</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.008920148442989899</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0144233889761579</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0045789248722341</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.60074444916822</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.937233638595479</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.917073170731707</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.0635109103307194</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.157916080527391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0063172643707145</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.0210757287897</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0390193794358508</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.141877126132082</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0070753842394394</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-10.8387165099585</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0647756764522039</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>95.38</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-4.75773052241072</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-12.7149539925029</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-1.15719773616985</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-4.98818465339769</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.105</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.08010673280238791</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-1.3099301649268</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5257261794495121</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.56918183746107</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0073957662218131</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0281767043188977</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0167810545499238</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.9061253149003</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.019439702257616</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-2.98685747663551</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-4.96640337411225</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-1.08742853129539</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-3.05748538912429</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.013</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0310707350901526</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.235927701148617</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.30129794549251</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.619803213448087</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.007470042011961</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.78108672936259</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-3.41271107733514</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.83657101892021</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.78108672936259</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.043497383420582</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.15585443037975</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-2.12268538488723</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.15585443037975</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
+++ b/trend_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.321318669025956</v>
+        <v>0.485028842066786</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.933333333333333</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>35.25</v>
+        <v>30.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.56668371670702</v>
+        <v>0.0333336663269685</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.31911688047118</v>
+        <v>-8.64108477880883</v>
       </c>
       <c r="M2" t="n">
-        <v>11.5952380952381</v>
+        <v>11.1149927432444</v>
       </c>
       <c r="N2" t="n">
-        <v>4.44449281335325</v>
+        <v>0.109290709268749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -660,35 +660,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.529157497956169</v>
+        <v>0.012258248006753</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.705882352941177</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.112615621788284</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0832335329112423</v>
+        <v>-0.300422077922078</v>
       </c>
       <c r="M3" t="n">
-        <v>0.147235098439504</v>
+        <v>-0.0187407280844771</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-26.8132432829247</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.926072431078914</v>
+        <v>0.09166061311125399</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.932203389830508</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.51</v>
+        <v>10.495</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09169384755372</v>
+        <v>-0.0692432614555259</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.009751411533878001</v>
+        <v>-0.222435694224197</v>
       </c>
       <c r="M4" t="n">
-        <v>0.209277528452399</v>
+        <v>0.0064455632222469</v>
       </c>
       <c r="N4" t="n">
-        <v>0.872443839711893</v>
+        <v>-0.659773810914968</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.655455270536147</v>
+        <v>0.111311819025961</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11864406779661</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="H5" t="n">
-        <v>0.355932203389831</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.013</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.000814381270903</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0015927812905417</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008691541174904</v>
+        <v>0.0021505394342953</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.26447131463854</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.502609510387969</v>
+        <v>0.483945572548276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H6" t="n">
-        <v>0.830508474576271</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>285.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.281828703703704</v>
       </c>
       <c r="L6" t="n">
-        <v>-68.9120704540087</v>
+        <v>-46.0424140772657</v>
       </c>
       <c r="M6" t="n">
-        <v>66.3617173017881</v>
+        <v>66.0647207354213</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.0987140818576896</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.245833860182081</v>
+        <v>0.135478099616145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.588235294117647</v>
+        <v>0.566037735849057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.450980392156863</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.929812807969373</v>
+        <v>0.999512364991043</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H8" t="n">
-        <v>0.203389830508475</v>
+        <v>0.189655172413793</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0002818287037037</v>
+        <v>-0.0005830007980845</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.000648181011535</v>
+        <v>-0.0008996305418719</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.0002775455927051</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.69714506172839</v>
+        <v>-11.6600159616919</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0484690942141995</v>
+        <v>0.0111461472698931</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.932203389830508</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.469</v>
+        <v>0.4985</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0347289161310388</v>
+        <v>0.05234474522293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0015568252995199</v>
+        <v>0.0183394986083506</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0621255407057542</v>
+        <v>0.0830465204239476</v>
       </c>
       <c r="N9" t="n">
-        <v>7.40488616866498</v>
+        <v>10.5004503957733</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.212425492827903</v>
+        <v>0.165795519910772</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.813559322033898</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0244314381270905</v>
+        <v>-0.0274624060150378</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0745408163265306</v>
+        <v>-0.0805555254562904</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0279720971789546</v>
+        <v>0.0204958054378832</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.316469405791328</v>
+        <v>-0.356192036511515</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0484690942141995</v>
+        <v>0.0162620906326638</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.966101694915254</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.483</v>
+        <v>0.514</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0430049258066774</v>
+        <v>0.0501425467957884</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0018289179669536</v>
+        <v>0.0208291084278777</v>
       </c>
       <c r="M11" t="n">
-        <v>0.064883473143863</v>
+        <v>0.0843430714798486</v>
       </c>
       <c r="N11" t="n">
-        <v>8.903711347138181</v>
+        <v>9.75535929879152</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.878332764095214</v>
+        <v>6.05346912947333e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.627118644067797</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>0.75</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.00343406593407</v>
+        <v>0.0714946771978022</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.46447301141187</v>
+        <v>0.0462762356093104</v>
       </c>
       <c r="M12" t="n">
-        <v>0.386685044325379</v>
+        <v>0.11100782214726</v>
       </c>
       <c r="N12" t="n">
-        <v>-11.1492673992674</v>
+        <v>9.532623626373629</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.12348928863963</v>
+        <v>0.0319323445539795</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.813559322033898</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.75</v>
+        <v>0.033</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0200047683208511</v>
+        <v>0.0064936518838304</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0197818714480058</v>
+        <v>0.0004496578808053</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0530658955241393</v>
+        <v>0.0162368887617156</v>
       </c>
       <c r="N13" t="n">
-        <v>2.66730244278015</v>
+        <v>19.6777329813044</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1657,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.529121670915076</v>
+        <v>0.0326627202322875</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76271186440678</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.035</v>
+        <v>4.89</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.00005270657716</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.003903215314996</v>
+        <v>0.0509388283503707</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0020169629421401</v>
+        <v>5.2919718585115</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>20.450975594625</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.890064144685649</v>
+        <v>0.0250676131348814</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966101694915254</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.78</v>
+        <v>5.75</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.419738363052042</v>
+        <v>0.757371253405995</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.5573965724913</v>
+        <v>0.039033867528919</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07764156423527881</v>
+        <v>3.59299180538247</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.781137302343961</v>
+        <v>13.1716739722782</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0074041375544582</v>
+        <v>0.002212502524073</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.886075949367089</v>
+        <v>0.597701149425287</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>0.82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8314167974882259</v>
+        <v>-0.0724702380952381</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07905593292778131</v>
+        <v>-0.123849862627565</v>
       </c>
       <c r="M16" t="n">
-        <v>3.31737139094779</v>
+        <v>-0.0301652982361282</v>
       </c>
       <c r="N16" t="n">
-        <v>13.8569466248038</v>
+        <v>-8.837833914053419</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.018378194326081</v>
+        <v>0.835902338294447</v>
       </c>
       <c r="G17" t="n">
-        <v>0.010989010989011</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.626373626373626</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>10.24</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0579761904761905</v>
+        <v>0.0228667862476109</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.11656914893617</v>
+        <v>-0.0117759874916177</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0122680398402822</v>
+        <v>0.0686108015557238</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.79761904761905</v>
+        <v>0.223308459449326</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.681074488284674</v>
+        <v>0.0571783161697372</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H18" t="n">
-        <v>0.857142857142857</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>10.27</v>
+        <v>0.013</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0171545988258318</v>
+        <v>0.0003355569833392</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0198851879573264</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0599093982443964</v>
+        <v>0.0007773913634696</v>
       </c>
       <c r="N18" t="n">
-        <v>0.167036015830885</v>
+        <v>2.58120756414801</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0398450600911598</v>
+        <v>0.0495596039601304</v>
       </c>
       <c r="G19" t="n">
-        <v>0.126050420168067</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H19" t="n">
-        <v>0.201680672268908</v>
+        <v>0.760683760683761</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.012</v>
+        <v>260</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003725773546412</v>
+        <v>14.7741759552783</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0006925852527495001</v>
+        <v>37.0034853494324</v>
       </c>
       <c r="N19" t="n">
-        <v>3.10481128867732</v>
+        <v>5.68237536741474</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0042290307109768</v>
+        <v>0.0013485184768869</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.6972477064220181</v>
       </c>
       <c r="H20" t="n">
-        <v>0.73728813559322</v>
+        <v>0.321100917431193</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>24.6790540540541</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>7.94001117323787</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>43.8960663845228</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.871621621621619</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0137171716657436</v>
+        <v>0.999582947530353</v>
       </c>
       <c r="G21" t="n">
-        <v>0.718181818181818</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0004575644690235</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-0.0001248277400547</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-4.75214676034348</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.992836320165053</v>
+        <v>0.510533798744881</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.151260504201681</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006</v>
+        <v>0.54</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0002103974654377</v>
+        <v>-0.0016623418643479</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003865079365079</v>
+        <v>-0.0131078776060444</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0101962862823142</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.50662442396313</v>
+        <v>-0.307841085990352</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.338069011422951</v>
+        <v>0.814707375068483</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.949579831932773</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.519</v>
+        <v>7.68</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0046311602870813</v>
+        <v>0.0072596492865439</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0074540910148724</v>
+        <v>-0.0064853597265492</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0120412434987998</v>
+        <v>0.0211534749034751</v>
       </c>
       <c r="N23" t="n">
-        <v>0.89232375473629</v>
+        <v>0.0945266834185413</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.868936524037666</v>
+        <v>0.437031570124197</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.610169491525424</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.69</v>
+        <v>0.5653</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0104746200172067</v>
+        <v>0.0011309196017016</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0049931829673575</v>
+        <v>-0.0124837489936962</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0255664080809772</v>
+        <v>0.012391703044285</v>
       </c>
       <c r="N24" t="n">
-        <v>0.136210923500738</v>
+        <v>0.200056536653391</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.274018426532386</v>
+        <v>0.0624772404431406</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.873949579831933</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.532</v>
+        <v>0.78</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0041343676814988</v>
+        <v>0.0126377479428466</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0065962741148363</v>
+        <v>-5.36624139518116e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0133831897539376</v>
+        <v>0.0243137668518383</v>
       </c>
       <c r="N25" t="n">
-        <v>0.777136782236623</v>
+        <v>1.62022409523675</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0256510749310236</v>
+        <v>0.0500923306302376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.453781512605042</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>0.033</v>
       </c>
       <c r="K26" t="n">
-        <v>0.374487354750513</v>
+        <v>0.0014979837127158</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.999358449762944</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="N26" t="n">
-        <v>4.68109193438141</v>
+        <v>4.53934458398744</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0751559155609956</v>
+        <v>0.06613362890649679</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.781512605042017</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.72</v>
+        <v>5.16</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009845013477088899</v>
+        <v>0.198775510204082</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0007086099205662</v>
+        <v>-0.0108584418105404</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0198674999079015</v>
+        <v>0.782549977403872</v>
       </c>
       <c r="N27" t="n">
-        <v>1.36736298292902</v>
+        <v>3.85223856984654</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0105121522806312</v>
+        <v>0.0029540340280311</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.008064516129032201</v>
       </c>
       <c r="H28" t="n">
-        <v>0.546218487394958</v>
+        <v>0.7983870967741939</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.032</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0014908163265306</v>
+        <v>0.322252675460428</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003324921644151</v>
+        <v>0.0299371099373202</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0028481538770796</v>
+        <v>0.767753014424023</v>
       </c>
       <c r="N28" t="n">
-        <v>4.65880102040816</v>
+        <v>8.48033356474811</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>0.0069405032216349</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0285714285714286</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.5</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.966386554621849</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>4.78</v>
+        <v>0.835</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0032455570745044</v>
+        <v>-0.0331121036889159</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.152962073227968</v>
+        <v>-0.06494897499376071</v>
       </c>
       <c r="M29" t="n">
-        <v>0.203746894784962</v>
+        <v>-0.0104368590043624</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0678986835670386</v>
+        <v>-3.96552139987017</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0012633335021837</v>
+        <v>0.0059075403073679</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.808333333333333</v>
+        <v>0.815028901734104</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>10.35</v>
       </c>
       <c r="K30" t="n">
-        <v>0.346579073482428</v>
+        <v>-0.0449384825700616</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0461808796815526</v>
+        <v>-0.0717125255377469</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9072355967778311</v>
+        <v>-0.0140122053884186</v>
       </c>
       <c r="N30" t="n">
-        <v>9.76279080232192</v>
+        <v>-0.434188237391899</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.323167560453459</v>
+        <v>0.0424483130689543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0410958904109589</v>
+        <v>0.142045454545455</v>
       </c>
       <c r="H31" t="n">
-        <v>0.479452054794521</v>
+        <v>0.147727272727273</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.85</v>
+        <v>0.013</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0050171703296703</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0298952516893305</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0167239010989011</v>
+        <v>0.0003681892768334</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.590255332902392</v>
+        <v>1.28234385422884</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.016026121912365</v>
+        <v>0.0110309167615266</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H32" t="n">
-        <v>0.848837209302326</v>
+        <v>0.748571428571429</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.4</v>
+        <v>230</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0413436768149882</v>
+        <v>10.3772509003601</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0718812736408723</v>
+        <v>2.48467738235616</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0099984949181666</v>
+        <v>20.0657084757044</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.397535353990271</v>
+        <v>4.51184821754789</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,34 +3371,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.120116471578126</v>
+        <v>0.319753658005936</v>
       </c>
       <c r="G33" t="n">
-        <v>0.135593220338983</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="H33" t="n">
-        <v>0.146892655367232</v>
+        <v>0.357575757575758</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003146468650679</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0100731502468987</v>
+        <v>0.421805251281404</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0113636363636364</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>0.113095238095238</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>226.5</v>
+        <v>0.005</v>
       </c>
       <c r="K34" t="n">
-        <v>10.5107913669065</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.6897624596732</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>19.3956462978189</v>
+        <v>0.000105838887279</v>
       </c>
       <c r="N34" t="n">
-        <v>4.64052598980418</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.204869187862451</v>
+        <v>0.865460634225477</v>
       </c>
       <c r="G35" t="n">
-        <v>0.682634730538922</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.329341317365269</v>
+        <v>0.922619047619048</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.54</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0058253588516746</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0128449466443654</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0026696652681059</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.07877015771753</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.113380000059952</v>
+        <v>0.900090248554779</v>
       </c>
       <c r="G36" t="n">
-        <v>0.114649681528662</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.121019108280255</v>
+        <v>0.534883720930233</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006</v>
+        <v>7.69</v>
       </c>
       <c r="K36" t="n">
-        <v>3.99180633014548e-05</v>
+        <v>0.0069612980345446</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0021037969549035</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0002067238700673</v>
+        <v>0.0164483235369303</v>
       </c>
       <c r="N36" t="n">
-        <v>0.665301055024247</v>
+        <v>0.0905240316585785</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.967640364056819</v>
+        <v>0.935367178847756</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.925</v>
+        <v>0.897727272727273</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.54</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.007836539712751301</v>
+        <v>-0.0075257554945054</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.016082893913426</v>
+        <v>-0.0146519928218168</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0016182064147015</v>
+        <v>0.000621853122306</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.45121105791692</v>
+        <v>-1.33910240115756</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.979250070490841</v>
+        <v>0.717404624514404</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.545977011494253</v>
+        <v>0.676136363636364</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.685</v>
+        <v>0.8145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0119950738916259</v>
+        <v>-0.0023264331210191</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0021978294981038</v>
+        <v>-0.0098692663056515</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0210269916416901</v>
+        <v>0.0043487057755081</v>
       </c>
       <c r="N38" t="n">
-        <v>0.156084240619725</v>
+        <v>-0.285627148068645</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_9a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.978220605438143</v>
+        <v>0.110218377130904</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.870056497175141</v>
+        <v>0.477272727272727</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0080044491837034</v>
+        <v>0.0004440729483282</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0150102739726027</v>
+        <v>-0.0001108312966822</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0021782220526595</v>
+        <v>0.0011142525207991</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.42681803631078</v>
+        <v>1.30609690684785</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.926519754239441</v>
+        <v>0.329317712084805</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.666666666666667</v>
+        <v>0.926136363636364</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8</v>
+        <v>6.225</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0050084008769149</v>
+        <v>0.0307794943820225</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0112814187295999</v>
+        <v>-0.06401742019753159</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.189167287640803</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.626050109614363</v>
+        <v>0.494449708948153</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.08866713219486561</v>
+        <v>0.368156767093037</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0388888888888889</v>
       </c>
       <c r="H41" t="n">
-        <v>0.451977401129944</v>
+        <v>0.438888888888889</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>0.032</v>
+        <v>0.795</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0003994535441921</v>
+        <v>-0.001665982484948</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-0.014993842364532</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0009230653786204</v>
+        <v>0.0101854488359769</v>
       </c>
       <c r="N41" t="n">
-        <v>1.24829232560038</v>
+        <v>-0.209557545276478</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.586832787927142</v>
+        <v>0.5043993257260579</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="H42" t="n">
-        <v>0.909604519774011</v>
+        <v>0.157407407407407</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>5.97</v>
+        <v>0.013</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0156797197140356</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.099740305817936</v>
+        <v>-0.0001112441939741</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0960826302679344</v>
+        <v>0.0001033701159727</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.262641871256878</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.757283972220813</v>
+        <v>0.414773407041236</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0402298850574713</v>
+        <v>0.013953488372093</v>
       </c>
       <c r="H43" t="n">
-        <v>0.448275862068966</v>
+        <v>0.716279069767442</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>0.82</v>
+        <v>230</v>
       </c>
       <c r="K43" t="n">
-        <v>0.004998134463655</v>
+        <v>0.777955271565495</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0083406254187886</v>
+        <v>-4.22500908936024</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0230753480730151</v>
+        <v>6.94901563800529</v>
       </c>
       <c r="N43" t="n">
-        <v>0.609528593128659</v>
+        <v>0.338241422419781</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4368,14 +4368,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.674761122635761</v>
+        <v>0.540884045680358</v>
       </c>
       <c r="G44" t="n">
-        <v>0.126829268292683</v>
+        <v>0.651741293532338</v>
       </c>
       <c r="H44" t="n">
-        <v>0.160975609756098</v>
+        <v>0.353233830845771</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.000200358047275</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4459,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4474,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.337761875846676</v>
+        <v>0.985781141414672</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.720588235294118</v>
+        <v>0.879396984924623</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>233</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>1.63217583694437</v>
+        <v>-0.0073272036474164</v>
       </c>
       <c r="L45" t="n">
-        <v>-4.020365015816</v>
+        <v>-0.0123036381741277</v>
       </c>
       <c r="M45" t="n">
-        <v>8.414743458564001</v>
+        <v>-0.003181853630074</v>
       </c>
       <c r="N45" t="n">
-        <v>0.700504651049084</v>
+        <v>-1.29914958287525</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4565,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.996446086711975</v>
+        <v>0.980517231557525</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.877659574468085</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.55725</v>
+        <v>0.5738</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.008920148442989899</v>
+        <v>-0.0070240384615384</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0144233889761579</v>
+        <v>-0.0123574334004019</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0045789248722341</v>
+        <v>-0.0019211244634026</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.60074444916822</v>
+        <v>-1.224126605357</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4656,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.937233638595479</v>
+        <v>0.7256530866920849</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.917073170731707</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6.22</v>
+        <v>6.25</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0635109103307194</v>
+        <v>-0.0295419647455198</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.157916080527391</v>
+        <v>-0.0981237838181262</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0063172643707145</v>
+        <v>0.0757412791931887</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.0210757287897</v>
+        <v>-0.472671435928317</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.110335680959923</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4759,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.36</v>
+        <v>0.352</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0390193794358508</v>
+        <v>-0.005496667161978</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.141877126132082</v>
+        <v>-0.0896086360655208</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0070753842394394</v>
+        <v>0.0488365065256387</v>
       </c>
       <c r="N48" t="n">
-        <v>-10.8387165099585</v>
+        <v>-1.56155317101649</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4834,31 +4834,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.0647756764522039</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>95.38</v>
+        <v>94</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.75773052241072</v>
+        <v>-3.37615102129135</v>
       </c>
       <c r="L49" t="n">
-        <v>-12.7149539925029</v>
+        <v>-13.9070410565622</v>
       </c>
       <c r="M49" t="n">
-        <v>-1.15719773616985</v>
+        <v>-0.865721853217289</v>
       </c>
       <c r="N49" t="n">
-        <v>-4.98818465339769</v>
+        <v>-3.59165002265037</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4933,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>5.105</v>
+        <v>5.63</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.08010673280238791</v>
+        <v>0.08463299219425451</v>
       </c>
       <c r="L50" t="n">
         <v>-1.3099301649268</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5257261794495121</v>
+        <v>0.654318801936789</v>
       </c>
       <c r="N50" t="n">
-        <v>-1.56918183746107</v>
+        <v>1.50325030540417</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5020,19 +5020,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.388</v>
+        <v>0.356</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0073957662218131</v>
+        <v>-0.0020577464788732</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0281767043188977</v>
+        <v>-0.027162373643166</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0167810545499238</v>
+        <v>0.0183833384470287</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.9061253149003</v>
+        <v>-0.578018673840798</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.019439702257616</v>
+        <v>0.0439807371540401</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5107,19 +5107,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>97.69</v>
+        <v>95.19</v>
       </c>
       <c r="K52" t="n">
-        <v>-2.98685747663551</v>
+        <v>-2.0761254222973</v>
       </c>
       <c r="L52" t="n">
-        <v>-4.96640337411225</v>
+        <v>-3.39131274727639</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.08742853129539</v>
+        <v>-0.242918541677837</v>
       </c>
       <c r="N52" t="n">
-        <v>-3.05748538912429</v>
+        <v>-2.18103311513531</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.639742606431872</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5197,16 +5197,16 @@
         <v>5.013</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0310707350901526</v>
+        <v>0.153433373170003</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.235927701148617</v>
+        <v>-0.0538798920285079</v>
       </c>
       <c r="M53" t="n">
-        <v>0.30129794549251</v>
+        <v>0.377588866118805</v>
       </c>
       <c r="N53" t="n">
-        <v>0.619803213448087</v>
+        <v>3.06070961839224</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5269,31 +5269,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.007470042011961</v>
+        <v>0.014269531785181</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>0.42</v>
       </c>
       <c r="K54" t="n">
-        <v>-1.78108672936259</v>
+        <v>-0.0108072122052705</v>
       </c>
       <c r="L54" t="n">
-        <v>-3.41271107733514</v>
+        <v>-0.0227878739163733</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.83657101892021</v>
+        <v>-0.0023264011304531</v>
       </c>
       <c r="N54" t="n">
-        <v>-1.78108672936259</v>
+        <v>-2.57314576315963</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5356,13 +5356,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.043497383420582</v>
+        <v>0.0027339471424819</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.777777777777778</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -5371,16 +5371,16 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.15585443037975</v>
+        <v>-2.11127167630058</v>
       </c>
       <c r="L55" t="n">
-        <v>-2.12268538488723</v>
+        <v>-3.41307649229609</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>-1.3428881576338</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.15585443037975</v>
+        <v>-2.11127167630058</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5419,6 +5419,180 @@
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5435929864079631</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.2275</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0042334771886559</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.145225373795227</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.109776605801336</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.08098473818567101</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.022689217534944</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-1.24914500683995</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-2.10866854397869</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.214839090145828</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-1.24914500683995</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
+++ b/trend_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
@@ -151,43 +154,40 @@
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -575,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,37 +669,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.485028842066786</v>
+        <v>0.610448896822114</v>
       </c>
       <c r="G2">
-        <v>0.0344827586206897</v>
+        <v>0.04</v>
       </c>
       <c r="H2">
-        <v>0.896551724137931</v>
+        <v>0.84</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>30.5</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>0.0333336663269685</v>
+        <v>-2.76949864754978</v>
       </c>
       <c r="L2">
-        <v>-8.64108477880883</v>
+        <v>-7.78415350985505</v>
       </c>
       <c r="M2">
-        <v>11.1149927432444</v>
+        <v>9.38722557628739</v>
       </c>
       <c r="N2">
-        <v>0.109290709268749</v>
+        <v>-10.6519178751915</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <v>1839393</v>
@@ -740,37 +740,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.012258248006753</v>
+        <v>0.003312438998447</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.702127659574468</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>-0.112615621788284</v>
+        <v>-0.121345514950166</v>
       </c>
       <c r="L3">
-        <v>-0.300422077922078</v>
+        <v>-0.369908378347874</v>
       </c>
       <c r="M3">
-        <v>-0.0187407280844771</v>
+        <v>-0.0246125336927224</v>
       </c>
       <c r="N3">
-        <v>-26.8132432829247</v>
+        <v>-40.4485049833887</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>1839393</v>
@@ -811,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.09166061311125399</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -826,22 +826,22 @@
         <v>10.495</v>
       </c>
       <c r="K4">
-        <v>-0.0692432614555259</v>
+        <v>-0.0645605691478332</v>
       </c>
       <c r="L4">
-        <v>-0.222435694224197</v>
+        <v>-0.141919968552774</v>
       </c>
       <c r="M4">
-        <v>0.0064455632222469</v>
+        <v>0.0459545155124588</v>
       </c>
       <c r="N4">
-        <v>-0.659773810914968</v>
+        <v>-0.615155494500555</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1839393</v>
@@ -879,40 +879,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.111311819025961</v>
+        <v>0.529493755334927</v>
       </c>
       <c r="G5">
-        <v>0.155172413793103</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.362068965517241</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K5">
-        <v>0.000814381270903</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0011467817896389</v>
       </c>
       <c r="M5">
-        <v>0.0021505394342953</v>
+        <v>0.001028460033484</v>
       </c>
       <c r="N5">
-        <v>6.26447131463854</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1839393</v>
@@ -947,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.483945572548276</v>
+        <v>0.967337279767713</v>
       </c>
       <c r="G6">
-        <v>0.0344827586206897</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H6">
         <v>0.896551724137931</v>
@@ -965,25 +965,25 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>285.5</v>
+        <v>247.6</v>
       </c>
       <c r="K6">
-        <v>0.281828703703704</v>
+        <v>-49.6202146537673</v>
       </c>
       <c r="L6">
-        <v>-46.0424140772657</v>
+        <v>-105.495258349606</v>
       </c>
       <c r="M6">
-        <v>66.0647207354213</v>
+        <v>-13.5537298400158</v>
       </c>
       <c r="N6">
-        <v>0.0987140818576896</v>
+        <v>-20.0404744158996</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1839393</v>
@@ -1021,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.135478099616145</v>
+        <v>0.0222543307380439</v>
       </c>
       <c r="G7">
-        <v>0.566037735849057</v>
+        <v>0.537037037037037</v>
       </c>
       <c r="H7">
-        <v>0.471698113207547</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1045,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0005316457667077</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1839393</v>
@@ -1092,16 +1092,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>0.999512364991043</v>
+        <v>0.999999983088845</v>
       </c>
       <c r="G8">
-        <v>0.0172413793103448</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H8">
-        <v>0.189655172413793</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1110,22 +1110,22 @@
         <v>0.005</v>
       </c>
       <c r="K8">
-        <v>-0.0005830007980845</v>
+        <v>-0.0011261562178828</v>
       </c>
       <c r="L8">
-        <v>-0.0008996305418719</v>
+        <v>-0.0014145262451316</v>
       </c>
       <c r="M8">
-        <v>-0.0002775455927051</v>
+        <v>-0.0008632206276121</v>
       </c>
       <c r="N8">
-        <v>-11.6600159616919</v>
+        <v>-22.5231243576567</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1839393</v>
@@ -1166,37 +1166,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0111461472698931</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4985</v>
+        <v>0.4475</v>
       </c>
       <c r="K9">
-        <v>0.05234474522293</v>
+        <v>0.0121272174254317</v>
       </c>
       <c r="L9">
-        <v>0.0183394986083506</v>
+        <v>-0.0233670181836151</v>
       </c>
       <c r="M9">
-        <v>0.0830465204239476</v>
+        <v>0.0405352946632878</v>
       </c>
       <c r="N9">
-        <v>10.5004503957733</v>
+        <v>2.70999272076686</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1839393</v>
@@ -1237,37 +1237,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.165795519910772</v>
+        <v>0.702021648802799</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.807017543859649</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.71</v>
+        <v>7.75</v>
       </c>
       <c r="K10">
-        <v>-0.0274624060150378</v>
+        <v>0.0174122040362306</v>
       </c>
       <c r="L10">
-        <v>-0.0805555254562904</v>
+        <v>-0.0345030749151622</v>
       </c>
       <c r="M10">
-        <v>0.0204958054378832</v>
+        <v>0.0640003511078987</v>
       </c>
       <c r="N10">
-        <v>-0.356192036511515</v>
+        <v>0.224673600467491</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1839393</v>
@@ -1305,37 +1305,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0162620906326638</v>
+        <v>0.328690213555041</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.514</v>
+        <v>0.458</v>
       </c>
       <c r="K11">
-        <v>0.0501425467957884</v>
+        <v>0.0125141191045796</v>
       </c>
       <c r="L11">
-        <v>0.0208291084278777</v>
+        <v>-0.0216166183714311</v>
       </c>
       <c r="M11">
-        <v>0.0843430714798486</v>
+        <v>0.0382455088800158</v>
       </c>
       <c r="N11">
-        <v>9.75535929879152</v>
+        <v>2.73234041584708</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1839393</v>
@@ -1376,13 +1376,13 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>6.05346912947333E-05</v>
+        <v>0.0519443296589569</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.810344827586207</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1391,22 +1391,22 @@
         <v>0.75</v>
       </c>
       <c r="K12">
-        <v>0.0714946771978022</v>
+        <v>0.0284306318681319</v>
       </c>
       <c r="L12">
-        <v>0.0462762356093104</v>
+        <v>-0.0003150374472565</v>
       </c>
       <c r="M12">
-        <v>0.11100782214726</v>
+        <v>0.0759950309413111</v>
       </c>
       <c r="N12">
-        <v>9.532623626373629</v>
+        <v>3.79075091575091</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q12">
         <v>1839393</v>
@@ -1447,34 +1447,34 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0319323445539795</v>
+        <v>0.64454144330569</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.775862068965517</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.033</v>
+        <v>0.0305</v>
       </c>
       <c r="K13">
-        <v>0.0064936518838304</v>
+        <v>-0.0006277522296544</v>
       </c>
       <c r="L13">
-        <v>0.0004496578808053</v>
+        <v>-0.002989976340362</v>
       </c>
       <c r="M13">
-        <v>0.0162368887617156</v>
+        <v>0.0021045002946557</v>
       </c>
       <c r="N13">
-        <v>19.6777329813044</v>
+        <v>-2.05820403165378</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
         <v>45</v>
@@ -1518,37 +1518,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.0326627202322875</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.89</v>
+        <v>5.395</v>
       </c>
       <c r="K14">
-        <v>1.00005270657716</v>
+        <v>0.210006146480331</v>
       </c>
       <c r="L14">
-        <v>0.0509388283503707</v>
+        <v>-0.183552660890598</v>
       </c>
       <c r="M14">
-        <v>5.2919718585115</v>
+        <v>2.52397440054277</v>
       </c>
       <c r="N14">
-        <v>20.450975594625</v>
+        <v>3.89260697831939</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>1839393</v>
@@ -1583,43 +1583,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0250676131348814</v>
+        <v>0.0152694179842418</v>
       </c>
       <c r="G15">
-        <v>0.0138888888888889</v>
+        <v>0.0153846153846154</v>
       </c>
       <c r="H15">
-        <v>0.888888888888889</v>
+        <v>0.907692307692308</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="K15">
-        <v>0.757371253405995</v>
+        <v>1.15511600004487</v>
       </c>
       <c r="L15">
-        <v>0.039033867528919</v>
+        <v>0.238036095073192</v>
       </c>
       <c r="M15">
-        <v>3.59299180538247</v>
+        <v>4.06240352113627</v>
       </c>
       <c r="N15">
-        <v>13.1716739722782</v>
+        <v>11.0011047623321</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1839393</v>
@@ -1660,37 +1660,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.002212502524073</v>
+        <v>0.000942572659507</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.597701149425287</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>-0.0724702380952381</v>
+        <v>-0.0696644385026738</v>
       </c>
       <c r="L16">
-        <v>-0.123849862627565</v>
+        <v>-0.130446428571429</v>
       </c>
       <c r="M16">
-        <v>-0.0301652982361282</v>
+        <v>-0.0334691666254238</v>
       </c>
       <c r="N16">
-        <v>-8.837833914053419</v>
+        <v>-13.9328877005348</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q16">
         <v>1839393</v>
@@ -1731,7 +1731,7 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.835902338294447</v>
+        <v>0.778265609378625</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1743,25 +1743,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.24</v>
+        <v>10.28</v>
       </c>
       <c r="K17">
-        <v>0.0228667862476109</v>
+        <v>0.0185160749231202</v>
       </c>
       <c r="L17">
-        <v>-0.0117759874916177</v>
+        <v>-0.0134607944812648</v>
       </c>
       <c r="M17">
-        <v>0.0686108015557238</v>
+        <v>0.075344391820898</v>
       </c>
       <c r="N17">
-        <v>0.223308459449326</v>
+        <v>0.180117460341637</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1839393</v>
@@ -1799,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.0571783161697372</v>
+        <v>0.676190686436992</v>
       </c>
       <c r="G18">
-        <v>0.135593220338983</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="H18">
         <v>0.211864406779661</v>
@@ -1817,22 +1817,22 @@
         <v>0.013</v>
       </c>
       <c r="K18">
-        <v>0.0003355569833392</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="M18">
-        <v>0.0007773913634696</v>
+        <v>0.0001365479821173</v>
       </c>
       <c r="N18">
-        <v>2.58120756414801</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q18">
         <v>1839393</v>
@@ -1873,10 +1873,10 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0495596039601304</v>
+        <v>0.449383424347908</v>
       </c>
       <c r="G19">
-        <v>0.0170940170940171</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H19">
         <v>0.760683760683761</v>
@@ -1885,22 +1885,22 @@
         <v>2</v>
       </c>
       <c r="J19">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K19">
-        <v>14.7741759552783</v>
+        <v>0.5616525849187</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-11.2042629379428</v>
       </c>
       <c r="M19">
-        <v>37.0034853494324</v>
+        <v>13.9317986067959</v>
       </c>
       <c r="N19">
-        <v>5.68237536741474</v>
+        <v>0.22466103396748</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
         <v>45</v>
@@ -1941,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0013485184768869</v>
+        <v>0.0006931277460238</v>
       </c>
       <c r="G20">
-        <v>0.6972477064220181</v>
+        <v>0.642201834862385</v>
       </c>
       <c r="H20">
-        <v>0.321100917431193</v>
+        <v>0.376146788990826</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1839393</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.999582947530353</v>
+        <v>0.999999988864167</v>
       </c>
       <c r="G21">
-        <v>0.0169491525423729</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="H21">
         <v>0.152542372881356</v>
@@ -2027,25 +2027,25 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K21">
-        <v>-0.0002851288056206</v>
+        <v>-0.0005435267857142</v>
       </c>
       <c r="L21">
-        <v>-0.0004575644690235</v>
+        <v>-0.0007474196311294</v>
       </c>
       <c r="M21">
-        <v>-0.0001248277400547</v>
+        <v>-0.0003865079365079</v>
       </c>
       <c r="N21">
-        <v>-4.75214676034348</v>
+        <v>-10.8705357142857</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1839393</v>
@@ -2086,37 +2086,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.510533798744881</v>
+        <v>0.822324136467561</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.940677966101695</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.54</v>
+        <v>0.4865</v>
       </c>
       <c r="K22">
-        <v>-0.0016623418643479</v>
+        <v>-0.007177821460149</v>
       </c>
       <c r="L22">
-        <v>-0.0131078776060444</v>
+        <v>-0.0190860222082018</v>
       </c>
       <c r="M22">
-        <v>0.0101962862823142</v>
+        <v>0.0047955175564643</v>
       </c>
       <c r="N22">
-        <v>-0.307841085990352</v>
+        <v>-1.47540009458357</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q22">
         <v>1839393</v>
@@ -2157,37 +2157,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.814707375068483</v>
+        <v>0.891955499914986</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.606837606837607</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.68</v>
+        <v>7.7</v>
       </c>
       <c r="K23">
-        <v>0.0072596492865439</v>
+        <v>0.0103189879617697</v>
       </c>
       <c r="L23">
-        <v>-0.0064853597265492</v>
+        <v>-0.0032752073013812</v>
       </c>
       <c r="M23">
-        <v>0.0211534749034751</v>
+        <v>0.0236044073002583</v>
       </c>
       <c r="N23">
-        <v>0.0945266834185413</v>
+        <v>0.134012830672334</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1839393</v>
@@ -2225,37 +2225,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.437031570124197</v>
+        <v>0.80841002141156</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.898305084745763</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5653</v>
+        <v>0.504</v>
       </c>
       <c r="K24">
-        <v>0.0011309196017016</v>
+        <v>-0.0061495511942796</v>
       </c>
       <c r="L24">
-        <v>-0.0124837489936962</v>
+        <v>-0.0197433011624303</v>
       </c>
       <c r="M24">
-        <v>0.012391703044285</v>
+        <v>0.0042100851899784</v>
       </c>
       <c r="N24">
-        <v>0.200056536653391</v>
+        <v>-1.22014904648405</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q24">
         <v>1839393</v>
@@ -2293,40 +2293,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>0.0624772404431406</v>
+        <v>0.457825669879264</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.73728813559322</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="K25">
-        <v>0.0126377479428466</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-5.36624139518116E-05</v>
+        <v>-0.0100479721196293</v>
       </c>
       <c r="M25">
-        <v>0.0243137668518383</v>
+        <v>0.0127690715851652</v>
       </c>
       <c r="N25">
-        <v>1.62022409523675</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q25">
         <v>1839393</v>
@@ -2364,16 +2364,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>0.0500923306302376</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.576271186440678</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>0.033</v>
       </c>
       <c r="K26">
-        <v>0.0014979837127158</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M26">
-        <v>0.0033234758871701</v>
+        <v>0.0012063480394535</v>
       </c>
       <c r="N26">
-        <v>4.53934458398744</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1839393</v>
@@ -2438,37 +2438,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.06613362890649679</v>
+        <v>0.151531273610423</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.966101694915254</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5.16</v>
+        <v>5.39</v>
       </c>
       <c r="K27">
-        <v>0.198775510204082</v>
+        <v>0.105041011933926</v>
       </c>
       <c r="L27">
-        <v>-0.0108584418105404</v>
+        <v>-0.0843365210786321</v>
       </c>
       <c r="M27">
-        <v>0.782549977403872</v>
+        <v>0.510928052963128</v>
       </c>
       <c r="N27">
-        <v>3.85223856984654</v>
+        <v>1.94881283736412</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1839393</v>
@@ -2509,37 +2509,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0029540340280311</v>
+        <v>0.0010908467239785</v>
       </c>
       <c r="G28">
-        <v>0.008064516129032201</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H28">
-        <v>0.7983870967741939</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="K28">
-        <v>0.322252675460428</v>
+        <v>0.353676932532095</v>
       </c>
       <c r="L28">
-        <v>0.0299371099373202</v>
+        <v>0.0503151605894765</v>
       </c>
       <c r="M28">
-        <v>0.767753014424023</v>
+        <v>0.701421351833503</v>
       </c>
       <c r="N28">
-        <v>8.48033356474811</v>
+        <v>8.73276376622457</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1839393</v>
@@ -2580,37 +2580,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.0069405032216349</v>
+        <v>0.0030640828317399</v>
       </c>
       <c r="G29">
-        <v>0.0285714285714286</v>
+        <v>0.0223880597014925</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>0.522388059701492</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="K29">
-        <v>-0.0331121036889159</v>
+        <v>-0.0361291865857584</v>
       </c>
       <c r="L29">
-        <v>-0.06494897499376071</v>
+        <v>-0.0669040031913521</v>
       </c>
       <c r="M29">
-        <v>-0.0104368590043624</v>
+        <v>-0.0111252999401494</v>
       </c>
       <c r="N29">
-        <v>-3.96552139987017</v>
+        <v>-4.5161483232198</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q29">
         <v>1839393</v>
@@ -2651,13 +2651,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.0059075403073679</v>
+        <v>0.12940147279707</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.815028901734104</v>
+        <v>0.8</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2666,22 +2666,22 @@
         <v>10.35</v>
       </c>
       <c r="K30">
-        <v>-0.0449384825700616</v>
+        <v>-0.0159628516798689</v>
       </c>
       <c r="L30">
-        <v>-0.0717125255377469</v>
+        <v>-0.0454910343158237</v>
       </c>
       <c r="M30">
-        <v>-0.0140122053884186</v>
+        <v>0.0069224255924415</v>
       </c>
       <c r="N30">
-        <v>-0.434188237391899</v>
+        <v>-0.154230451013226</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1839393</v>
@@ -2719,40 +2719,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>0.0424483130689543</v>
+        <v>0.296170066061206</v>
       </c>
       <c r="G31">
-        <v>0.142045454545455</v>
+        <v>0.141242937853107</v>
       </c>
       <c r="H31">
-        <v>0.147727272727273</v>
+        <v>0.146892655367232</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K31">
-        <v>0.0001667047010497</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0003681892768334</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N31">
-        <v>1.28234385422884</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1839393</v>
@@ -2793,37 +2793,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.0110309167615266</v>
+        <v>0.244801387138206</v>
       </c>
       <c r="G32">
-        <v>0.0114285714285714</v>
+        <v>0.0170454545454545</v>
       </c>
       <c r="H32">
-        <v>0.748571428571429</v>
+        <v>0.761363636363636</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K32">
-        <v>10.3772509003601</v>
+        <v>2.60187741312741</v>
       </c>
       <c r="L32">
-        <v>2.48467738235616</v>
+        <v>-3.17049382749422</v>
       </c>
       <c r="M32">
-        <v>20.0657084757044</v>
+        <v>10.385966689472</v>
       </c>
       <c r="N32">
-        <v>4.51184821754789</v>
+        <v>1.14620150358036</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1839393</v>
@@ -2858,19 +2858,19 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.319753658005936</v>
+        <v>0.0710158094375436</v>
       </c>
       <c r="G33">
-        <v>0.654545454545455</v>
+        <v>0.632530120481928</v>
       </c>
       <c r="H33">
-        <v>0.357575757575758</v>
+        <v>0.379518072289157</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1839393</v>
@@ -2932,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>0.421805251281404</v>
+        <v>0.922241505670178</v>
       </c>
       <c r="G34">
-        <v>0.107142857142857</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H34">
-        <v>0.113095238095238</v>
+        <v>0.107344632768362</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-0.0001516818936877</v>
       </c>
       <c r="M34">
-        <v>0.000105838887279</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q34">
         <v>1839393</v>
@@ -3006,37 +3006,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.865460634225477</v>
+        <v>0.987303915990378</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.922619047619048</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="K35">
-        <v>-0.0058253588516746</v>
+        <v>-0.008361950549450501</v>
       </c>
       <c r="L35">
-        <v>-0.0128449466443654</v>
+        <v>-0.0151380879672255</v>
       </c>
       <c r="M35">
-        <v>0.0026696652681059</v>
+        <v>-0.0037965572515002</v>
       </c>
       <c r="N35">
-        <v>-1.07877015771753</v>
+        <v>-1.56298141111225</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1839393</v>
@@ -3077,37 +3077,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.900090248554779</v>
+        <v>0.883669775881431</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.534883720930233</v>
+        <v>0.520231213872832</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="K36">
-        <v>0.0069612980345446</v>
+        <v>0.0055303342143651</v>
       </c>
       <c r="L36">
-        <v>-0.0021037969549035</v>
+        <v>-0.0023209253675481</v>
       </c>
       <c r="M36">
-        <v>0.0164483235369303</v>
+        <v>0.0141526135045064</v>
       </c>
       <c r="N36">
-        <v>0.0905240316585785</v>
+        <v>0.0718225222644826</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q36">
         <v>1839393</v>
@@ -3145,37 +3145,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.935367178847756</v>
+        <v>0.984712588560367</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.897727272727273</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.5620000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="K37">
-        <v>-0.0075257554945054</v>
+        <v>-0.008468121377429199</v>
       </c>
       <c r="L37">
-        <v>-0.0146519928218168</v>
+        <v>-0.0160223240325848</v>
       </c>
       <c r="M37">
-        <v>0.000621853122306</v>
+        <v>-0.0029415702115672</v>
       </c>
       <c r="N37">
-        <v>-1.33910240115756</v>
+        <v>-1.52030904442177</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1839393</v>
@@ -3216,34 +3216,34 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.717404624514404</v>
+        <v>0.836511136121054</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.676136363636364</v>
+        <v>0.649717514124294</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.8145</v>
+        <v>0.79</v>
       </c>
       <c r="K38">
-        <v>-0.0023264331210191</v>
+        <v>-0.0043762672811059</v>
       </c>
       <c r="L38">
-        <v>-0.0098692663056515</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M38">
-        <v>0.0043487057755081</v>
+        <v>0.0019991789819376</v>
       </c>
       <c r="N38">
-        <v>-0.285627148068645</v>
+        <v>-0.553957883684301</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P38" t="s">
         <v>54</v>
@@ -3284,40 +3284,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>0.110218377130904</v>
+        <v>0.494157787390321</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.477272727272727</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="K39">
-        <v>0.0004440729483282</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0001108312966822</v>
+        <v>-0.0005002644488108</v>
       </c>
       <c r="M39">
-        <v>0.0011142525207991</v>
+        <v>0.0006309259591581</v>
       </c>
       <c r="N39">
-        <v>1.30609690684785</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1839393</v>
@@ -3358,37 +3358,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.329317712084805</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.926136363636364</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6.225</v>
+        <v>5.97</v>
       </c>
       <c r="K40">
-        <v>0.0307794943820225</v>
+        <v>-0.0032455570745044</v>
       </c>
       <c r="L40">
-        <v>-0.06401742019753159</v>
+        <v>-0.0959783692093412</v>
       </c>
       <c r="M40">
-        <v>0.189167287640803</v>
+        <v>0.138692975205186</v>
       </c>
       <c r="N40">
-        <v>0.494449708948153</v>
+        <v>-0.0543644401089522</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1839393</v>
@@ -3426,40 +3426,40 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.368156767093037</v>
+        <v>0.099215918783166</v>
       </c>
       <c r="G41">
         <v>0.0388888888888889</v>
       </c>
       <c r="H41">
-        <v>0.438888888888889</v>
+        <v>0.433333333333333</v>
       </c>
       <c r="I41">
         <v>6</v>
       </c>
       <c r="J41">
-        <v>0.795</v>
+        <v>0.745</v>
       </c>
       <c r="K41">
-        <v>-0.001665982484948</v>
+        <v>-0.008321941216678</v>
       </c>
       <c r="L41">
-        <v>-0.014993842364532</v>
+        <v>-0.0221744252855075</v>
       </c>
       <c r="M41">
-        <v>0.0101854488359769</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-0.209557545276478</v>
+        <v>-1.11703908948699</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q41">
         <v>1839393</v>
@@ -3488,7 +3488,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3497,40 +3497,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.5043993257260579</v>
+        <v>0.006566393763339</v>
       </c>
       <c r="G42">
-        <v>0.12962962962963</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.157407407407407</v>
+        <v>0.812182741116751</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.013</v>
+        <v>10.43</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.0399644487394033</v>
       </c>
       <c r="L42">
-        <v>-0.0001112441939741</v>
+        <v>-0.06557699683134</v>
       </c>
       <c r="M42">
-        <v>0.0001033701159727</v>
+        <v>-0.0128705785736505</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.383168252535027</v>
       </c>
       <c r="O42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1839393</v>
@@ -3551,7 +3551,7 @@
         <v>61</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,49 +3559,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F43">
-        <v>0.414773407041236</v>
+        <v>0.688946156387398</v>
       </c>
       <c r="G43">
-        <v>0.013953488372093</v>
+        <v>0.133928571428571</v>
       </c>
       <c r="H43">
-        <v>0.716279069767442</v>
+        <v>0.151785714285714</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>230</v>
+        <v>0.0125</v>
       </c>
       <c r="K43">
-        <v>0.777955271565495</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>-4.22500908936024</v>
+        <v>-0.0001249851173797</v>
       </c>
       <c r="M43">
-        <v>6.94901563800529</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>0.338241422419781</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>1839393</v>
@@ -3622,7 +3622,7 @@
         <v>61</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,7 +3630,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3639,40 +3639,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.540884045680358</v>
+        <v>0.639928470382562</v>
       </c>
       <c r="G44">
-        <v>0.651741293532338</v>
+        <v>0.0134529147982063</v>
       </c>
       <c r="H44">
-        <v>0.353233830845771</v>
+        <v>0.730941704035874</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>225</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-0.921882887430591</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-5.25558687457776</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>3.81567392179249</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-0.409725727746929</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q44">
         <v>1839393</v>
@@ -3693,7 +3693,7 @@
         <v>61</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,7 +3701,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -3710,40 +3710,40 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45">
-        <v>0.985781141414672</v>
+        <v>0.193937750555525</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.63849765258216</v>
       </c>
       <c r="H45">
-        <v>0.879396984924623</v>
+        <v>0.366197183098592</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.5639999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>-0.0073272036474164</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0123036381741277</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>-0.003181853630074</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-1.29914958287525</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q45">
         <v>1839393</v>
@@ -3772,7 +3772,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,37 +3784,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.980517231557525</v>
+        <v>0.998298168280026</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.886792452830189</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.5738</v>
+        <v>0.541</v>
       </c>
       <c r="K46">
-        <v>-0.0070240384615384</v>
+        <v>-0.008446813181518799</v>
       </c>
       <c r="L46">
-        <v>-0.0123574334004019</v>
+        <v>-0.0136883222283021</v>
       </c>
       <c r="M46">
-        <v>-0.0019211244634026</v>
+        <v>-0.0048503057742163</v>
       </c>
       <c r="N46">
-        <v>-1.224126605357</v>
+        <v>-1.56133330527151</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q46">
         <v>1839393</v>
@@ -3835,7 +3835,7 @@
         <v>61</v>
       </c>
       <c r="W46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3843,49 +3843,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.7256530866920849</v>
+        <v>0.9984935512401339</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.916666666666667</v>
+        <v>0.492753623188406</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>6.25</v>
+        <v>7.69</v>
       </c>
       <c r="K47">
-        <v>-0.0295419647455198</v>
+        <v>0.0122013165651405</v>
       </c>
       <c r="L47">
-        <v>-0.0981237838181262</v>
+        <v>0.0052365051737605</v>
       </c>
       <c r="M47">
-        <v>0.0757412791931887</v>
+        <v>0.0190666887564494</v>
       </c>
       <c r="N47">
-        <v>-0.472671435928317</v>
+        <v>0.158664714761255</v>
       </c>
       <c r="O47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q47">
         <v>1839393</v>
@@ -3904,9 +3904,6 @@
       </c>
       <c r="V47" t="s">
         <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3914,49 +3911,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.231216363225238</v>
+        <v>0.99901574981286</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.352</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="K48">
-        <v>-0.005496667161978</v>
+        <v>-0.0083178388512895</v>
       </c>
       <c r="L48">
-        <v>-0.0896086360655208</v>
+        <v>-0.013343053030605</v>
       </c>
       <c r="M48">
-        <v>0.0488365065256387</v>
+        <v>-0.0045773203342201</v>
       </c>
       <c r="N48">
-        <v>-1.56155317101649</v>
+        <v>-1.48004250022946</v>
       </c>
       <c r="O48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q48">
         <v>1839393</v>
@@ -3976,55 +3973,58 @@
       <c r="V48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.110335680959923</v>
+        <v>0.962068076459406</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.589622641509434</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>94</v>
+        <v>0.8</v>
       </c>
       <c r="K49">
-        <v>-3.37615102129135</v>
+        <v>-0.0050116630076838</v>
       </c>
       <c r="L49">
-        <v>-13.9070410565622</v>
+        <v>-0.009975100002274801</v>
       </c>
       <c r="M49">
-        <v>-0.865721853217289</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>-3.59165002265037</v>
+        <v>-0.626457875960483</v>
       </c>
       <c r="O49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q49">
         <v>1839393</v>
@@ -4044,55 +4044,58 @@
       <c r="V49" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.59675202974633</v>
+        <v>0.342799306943239</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.429245283018868</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>5.63</v>
+        <v>0.032</v>
       </c>
       <c r="K50">
-        <v>0.08463299219425451</v>
+        <v>7.6733193277311E-05</v>
       </c>
       <c r="L50">
-        <v>-1.3099301649268</v>
+        <v>-0.0002335372645755</v>
       </c>
       <c r="M50">
-        <v>0.654318801936789</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="N50">
-        <v>1.50325030540417</v>
+        <v>0.239791228991597</v>
       </c>
       <c r="O50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q50">
         <v>1839393</v>
@@ -4112,55 +4115,58 @@
       <c r="V50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.360257393568128</v>
+        <v>0.718915904160679</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.356</v>
+        <v>6.11</v>
       </c>
       <c r="K51">
-        <v>-0.0020577464788732</v>
+        <v>-0.0248469387755102</v>
       </c>
       <c r="L51">
-        <v>-0.027162373643166</v>
+        <v>-0.0868862034383579</v>
       </c>
       <c r="M51">
-        <v>0.0183833384470287</v>
+        <v>0.0699959712516771</v>
       </c>
       <c r="N51">
-        <v>-0.578018673840798</v>
+        <v>-0.40666020909182</v>
       </c>
       <c r="O51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q51">
         <v>1839393</v>
@@ -4180,16 +4186,19 @@
       <c r="V51" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4198,34 +4207,34 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.0439807371540401</v>
+        <v>0.5</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>95.19</v>
+        <v>0.352</v>
       </c>
       <c r="K52">
-        <v>-2.0761254222973</v>
+        <v>0.002369617702771</v>
       </c>
       <c r="L52">
-        <v>-3.39131274727639</v>
+        <v>-0.0896086360655208</v>
       </c>
       <c r="M52">
-        <v>-0.242918541677837</v>
+        <v>0.0632730084990213</v>
       </c>
       <c r="N52">
-        <v>-2.18103311513531</v>
+        <v>0.6731868473781381</v>
       </c>
       <c r="O52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P52" t="s">
         <v>45</v>
@@ -4249,15 +4258,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4266,7 +4275,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.923796858021625</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4278,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.013</v>
+        <v>94</v>
       </c>
       <c r="K53">
-        <v>0.153433373170003</v>
+        <v>1.16572050635803</v>
       </c>
       <c r="L53">
-        <v>-0.0538798920285079</v>
+        <v>-13.9070410565622</v>
       </c>
       <c r="M53">
-        <v>0.377588866118805</v>
+        <v>11.5968696339545</v>
       </c>
       <c r="N53">
-        <v>3.06070961839224</v>
+        <v>1.24012819825322</v>
       </c>
       <c r="O53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q53">
         <v>1839393</v>
@@ -4317,15 +4326,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4334,7 +4343,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.014269531785181</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4346,22 +4355,22 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.42</v>
+        <v>5.319</v>
       </c>
       <c r="K54">
-        <v>-0.0108072122052705</v>
+        <v>0.0279531379624057</v>
       </c>
       <c r="L54">
-        <v>-0.0227878739163733</v>
+        <v>-1.6927118949546</v>
       </c>
       <c r="M54">
-        <v>-0.0023264011304531</v>
+        <v>0.89841187602378</v>
       </c>
       <c r="N54">
-        <v>-2.57314576315963</v>
+        <v>0.5255337086370681</v>
       </c>
       <c r="O54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P54" t="s">
         <v>45</v>
@@ -4385,15 +4394,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4402,37 +4411,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.0027339471424819</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.866666666666667</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>0.356</v>
       </c>
       <c r="K55">
-        <v>-2.11127167630058</v>
+        <v>0.0029905840611353</v>
       </c>
       <c r="L55">
-        <v>-3.41307649229609</v>
+        <v>-0.0200471290794525</v>
       </c>
       <c r="M55">
-        <v>-1.3428881576338</v>
+        <v>0.0217066221756671</v>
       </c>
       <c r="N55">
-        <v>-2.11127167630058</v>
+        <v>0.8400517025661161</v>
       </c>
       <c r="O55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q55">
         <v>1839393</v>
@@ -4453,15 +4462,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4470,37 +4479,37 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.5435929864079631</v>
+        <v>0.264799404212504</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.2275</v>
+        <v>95.19</v>
       </c>
       <c r="K56">
-        <v>0.0042334771886559</v>
+        <v>-0.75138800635425</v>
       </c>
       <c r="L56">
-        <v>-0.145225373795227</v>
+        <v>-2.90718084790936</v>
       </c>
       <c r="M56">
-        <v>0.109776605801336</v>
+        <v>1.17249077147035</v>
       </c>
       <c r="N56">
-        <v>0.08098473818567101</v>
+        <v>-0.789356031467854</v>
       </c>
       <c r="O56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q56">
         <v>1839393</v>
@@ -4521,15 +4530,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4538,54 +4547,326 @@
         <v>40</v>
       </c>
       <c r="F57">
-        <v>0.022689217534944</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.212</v>
+      </c>
+      <c r="K57">
+        <v>0.166066046966732</v>
+      </c>
+      <c r="L57">
+        <v>-0.07032399715130951</v>
+      </c>
+      <c r="M57">
+        <v>0.378372123226408</v>
+      </c>
+      <c r="N57">
+        <v>3.1862249993617</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57">
+        <v>1839393</v>
+      </c>
+      <c r="R57">
+        <v>5531597</v>
+      </c>
+      <c r="S57" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" t="s">
+        <v>59</v>
+      </c>
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="V57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.0188334611143141</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.416</v>
+      </c>
+      <c r="K58">
+        <v>-0.0104579652756625</v>
+      </c>
+      <c r="L58">
+        <v>-0.0196245728943168</v>
+      </c>
+      <c r="M58">
+        <v>-0.002002473795309</v>
+      </c>
+      <c r="N58">
+        <v>-2.5139339604958</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q58">
+        <v>1839393</v>
+      </c>
+      <c r="R58">
+        <v>5531597</v>
+      </c>
+      <c r="S58" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58" t="s">
+        <v>59</v>
+      </c>
+      <c r="U58" t="s">
+        <v>60</v>
+      </c>
+      <c r="V58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.000899612166391</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>-2.11127167630058</v>
+      </c>
+      <c r="L59">
+        <v>-3.41344145788375</v>
+      </c>
+      <c r="M59">
+        <v>-1.37580345098804</v>
+      </c>
+      <c r="N59">
+        <v>-2.11127167630058</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q59">
+        <v>1839393</v>
+      </c>
+      <c r="R59">
+        <v>5531597</v>
+      </c>
+      <c r="S59" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59" t="s">
+        <v>59</v>
+      </c>
+      <c r="U59" t="s">
+        <v>60</v>
+      </c>
+      <c r="V59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.539420674887488</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.319</v>
+      </c>
+      <c r="K60">
+        <v>0.0042334771886559</v>
+      </c>
+      <c r="L60">
+        <v>-0.103868584407412</v>
+      </c>
+      <c r="M60">
+        <v>0.09746961624235539</v>
+      </c>
+      <c r="N60">
+        <v>0.07959159971152389</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q60">
+        <v>1839393</v>
+      </c>
+      <c r="R60">
+        <v>5531597</v>
+      </c>
+      <c r="S60" t="s">
+        <v>58</v>
+      </c>
+      <c r="T60" t="s">
+        <v>59</v>
+      </c>
+      <c r="U60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>0.0034329419014349</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>0.789473684210526</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>100</v>
       </c>
-      <c r="K57">
-        <v>-1.24914500683995</v>
-      </c>
-      <c r="L57">
-        <v>-2.10866854397869</v>
-      </c>
-      <c r="M57">
-        <v>-0.214839090145828</v>
-      </c>
-      <c r="N57">
-        <v>-1.24914500683995</v>
-      </c>
-      <c r="O57" t="s">
-        <v>43</v>
-      </c>
-      <c r="P57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q57">
-        <v>1839393</v>
-      </c>
-      <c r="R57">
-        <v>5531597</v>
-      </c>
-      <c r="S57" t="s">
-        <v>58</v>
-      </c>
-      <c r="T57" t="s">
-        <v>59</v>
-      </c>
-      <c r="U57" t="s">
-        <v>60</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="K61">
+        <v>-1.29982206405694</v>
+      </c>
+      <c r="L61">
+        <v>-2.10898667322138</v>
+      </c>
+      <c r="M61">
+        <v>-0.620018810857821</v>
+      </c>
+      <c r="N61">
+        <v>-1.29982206405694</v>
+      </c>
+      <c r="O61" t="s">
+        <v>44</v>
+      </c>
+      <c r="P61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61">
+        <v>1839393</v>
+      </c>
+      <c r="R61">
+        <v>5531597</v>
+      </c>
+      <c r="S61" t="s">
+        <v>58</v>
+      </c>
+      <c r="T61" t="s">
+        <v>59</v>
+      </c>
+      <c r="U61" t="s">
+        <v>60</v>
+      </c>
+      <c r="V61" t="s">
         <v>61</v>
       </c>
     </row>
